--- a/xlsx/污染物排放控制技术_intext.xlsx
+++ b/xlsx/污染物排放控制技术_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%86%E5%A1%AB%E5%8D%80</t>
   </si>
   <si>
-    <t>堆填區</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_污染物排放控制技术</t>
+    <t>堆填区</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_污染物排放控制技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%90%B5</t>
   </si>
   <si>
-    <t>鋼鐵</t>
+    <t>钢铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E7%89%A9</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>空氣污染</t>
+    <t>空气污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E9%9B%A8</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%BB%AF%E5%8C%96</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9A%B1%E8%9C%A2%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>蚱蜢效應</t>
+    <t>蚱蜢效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E7%B2%92%E5%AD%90</t>
   </si>
   <si>
-    <t>懸浮粒子</t>
+    <t>悬浮粒子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E9%9C%A7</t>
   </si>
   <si>
-    <t>煙霧</t>
+    <t>烟雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E9%9C%9E</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%86%A0</t>
   </si>
   <si>
-    <t>氣膠</t>
+    <t>气胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B1%A1%E6%9F%93</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%BB%A2%E6%A3%84%E7%89%A9</t>
   </si>
   <si>
-    <t>海洋廢棄物</t>
+    <t>海洋废弃物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E5%A4%96%E6%B4%A9</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>熱污染</t>
+    <t>热污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E5%BE%84%E6%B5%81</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%B3%AA</t>
   </si>
   <si>
-    <t>水質</t>
+    <t>水质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B0%B4</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%A1%A8%E9%80%95%E6%B5%81</t>
   </si>
   <si>
-    <t>地表逕流</t>
+    <t>地表迳流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E5%9B%BA%E9%AB%94</t>
   </si>
   <si>
-    <t>懸浮固體</t>
+    <t>悬浮固体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%B1%A1%E6%9F%93</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%AE%E5%BE%A9</t>
   </si>
   <si>
-    <t>生物修復</t>
+    <t>生物修复</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Phytoremediation</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>熱島現象</t>
+    <t>热岛现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AE%B3</t>
@@ -395,19 +395,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B9%85%E6%80%A7%E6%9C%89%E6%A9%9F%E6%B1%A1%E6%9F%93%E7%89%A9</t>
   </si>
   <si>
-    <t>持久性有機污染物</t>
+    <t>持久性有机污染物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%B9%B2%E6%93%BE%E7%B4%A0</t>
   </si>
   <si>
-    <t>內分泌干擾素</t>
+    <t>内分泌干扰素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E9%9B%8C%E6%BF%80%E7%B4%A0</t>
   </si>
   <si>
-    <t>環境雌激素</t>
+    <t>环境雌激素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%9B%91%E6%B5%8B</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>垃圾分類</t>
+    <t>垃圾分类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B1%A1%E6%9F%93%E6%8E%A7%E5%88%B6</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E5%A6%A5%E5%96%84%E8%99%95%E7%90%86%E7%8E%87</t>
   </si>
   <si>
-    <t>污水妥善處理率</t>
+    <t>污水妥善处理率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E9%A2%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>旋風分離</t>
+    <t>旋风分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8F%91%E9%85%B5</t>
@@ -521,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B4%AF%E7%A9%8D</t>
   </si>
   <si>
-    <t>生物累積</t>
+    <t>生物累积</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%BF%83%E7%B8%AE%E6%80%A7</t>
   </si>
   <si>
-    <t>生物濃縮性</t>
+    <t>生物浓缩性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%BE%E5%AE%B3</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%A1%91%E4%BB%81%E6%AD%A6%E5%BB%A0%E6%B1%99%E6%9F%93%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>台塑仁武廠汙染事件</t>
+    <t>台塑仁武厂污染事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8D%97%E7%9C%81%E5%85%92%E7%AB%A5%E9%89%9B%E4%B8%AD%E6%AF%92%E6%A1%88</t>
   </si>
   <si>
-    <t>湖南省兒童鉛中毒案</t>
+    <t>湖南省儿童铅中毒案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%9B%E5%A4%A7%E6%B1%A1%E6%9F%93%E7%97%85</t>
@@ -569,19 +569,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%AA%E6%96%AF%E8%99%9F%E8%B2%A8%E8%BC%AA%E6%B2%B9%E6%B1%A1%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>阿瑪斯號貨輪油污事件</t>
+    <t>阿玛斯号货轮油污事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%9C%92%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>林園事件</t>
+    <t>林园事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%BC%8F%E6%B2%B9%E4%BA%8B%E6%95%85</t>
   </si>
   <si>
-    <t>2010年墨西哥灣漏油事故</t>
+    <t>2010年墨西哥湾漏油事故</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A4%A7%E8%BF%9E%E6%96%B0%E6%B8%AF%E8%BE%93%E6%B2%B9%E7%AE%A1%E9%81%93%E7%88%86%E7%82%B8</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>巴塞爾公約</t>
+    <t>巴塞尔公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
@@ -617,19 +617,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>斯德哥爾摩公約</t>
+    <t>斯德哥尔摩公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AD%A2%E8%88%B9%E8%88%B6%E6%B1%99%E6%9F%93%E5%9C%8B%E9%9A%9B%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>防止船舶汙染國際公約</t>
+    <t>防止船舶污染国际公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BF%A3%E5%85%AC%E7%BA%A6</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E8%80%85%E8%87%AA%E4%BB%98%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>污染者自付原則</t>
+    <t>污染者自付原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E6%BA%90%E7%9B%91%E6%B5%8B</t>
@@ -665,19 +665,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>歐洲環境署</t>
+    <t>欧洲环境署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%9C%81</t>
   </si>
   <si>
-    <t>環境省</t>
+    <t>环境省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
   </si>
   <si>
-    <t>行政院環境保護署</t>
+    <t>行政院环境保护署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E9%83%A8</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>環境保護署 (香港)</t>
+    <t>环境保护署 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%92%8C%E5%B9%B3</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8</t>
   </si>
   <si>
-    <t>綠黨</t>
+    <t>绿党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
